--- a/10-st/DP1/DP1.xlsx
+++ b/10-st/DP1/DP1.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\matlab\10-steel\DP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyran/Documents/GitHub/matlab/10-st/DP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69C36109-280E-4F4C-9E3D-39DADB3A0198}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lateral Force" sheetId="1" r:id="rId1"/>
-    <sheet name="質量" sheetId="9" r:id="rId2"/>
-    <sheet name="工作表10" sheetId="10" r:id="rId3"/>
-    <sheet name="工作表7" sheetId="7" r:id="rId4"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId5"/>
-    <sheet name="工作表8" sheetId="8" r:id="rId6"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId7"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId8"/>
-    <sheet name="工作表6" sheetId="6" r:id="rId9"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId10"/>
+    <sheet name="質量" sheetId="9" r:id="rId1"/>
+    <sheet name="Lateral Force" sheetId="1" r:id="rId2"/>
+    <sheet name="mass of inertia" sheetId="11" r:id="rId3"/>
+    <sheet name="工作表10" sheetId="10" r:id="rId4"/>
+    <sheet name="工作表7" sheetId="7" r:id="rId5"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId6"/>
+    <sheet name="工作表8" sheetId="8" r:id="rId7"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId8"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId9"/>
+    <sheet name="工作表6" sheetId="6" r:id="rId10"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="406">
   <si>
     <t>Averaged concrete slab weight</t>
   </si>
@@ -2150,17 +2152,104 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Mass(tf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mass Moment of Inertia in x dir. (tf-m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體 (本文)"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mass Moment of Inertia in y dir. (tf-m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體 (本文)"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mass Moment of Inertia in z dir. (tf-m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體 (本文)"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2317,6 +2406,29 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="新細明體 (本文)"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2745,7 +2857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2914,6 +3026,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2921,33 +3186,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,130 +3203,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3098,7 +3264,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="中等" xfId="4" builtinId="28"/>
     <cellStyle name="好" xfId="5" builtinId="26"/>
-    <cellStyle name="輔色1" xfId="1" builtinId="29"/>
+    <cellStyle name="輔色 1" xfId="1" builtinId="29"/>
     <cellStyle name="壞" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3443,222 +3609,1828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="C3:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="11" style="56"/>
+    <col min="3" max="3" width="3.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" ht="17" thickBot="1"/>
+    <row r="4" spans="3:8">
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G5" s="60">
+        <f>E5*F5</f>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="90"/>
+      <c r="D6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G6" s="60">
+        <f>E6*F6</f>
+        <v>162</v>
+      </c>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="90"/>
+      <c r="D7" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="60">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="60">
+        <f>(36*2+30*2)*1.4</f>
+        <v>184.79999999999998</v>
+      </c>
+      <c r="G7" s="60">
+        <f>E7*F7</f>
+        <v>18.48</v>
+      </c>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="90"/>
+      <c r="D8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G8" s="60">
+        <f>E8*F8</f>
+        <v>108</v>
+      </c>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="90"/>
+      <c r="D9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="60">
+        <v>1</v>
+      </c>
+      <c r="F9" s="60">
+        <v>64</v>
+      </c>
+      <c r="G9" s="60">
+        <f>E9*F9</f>
+        <v>64</v>
+      </c>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="91"/>
+      <c r="D10" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="62">
+        <f>SUM(G5:G9)</f>
+        <v>654.88000000000011</v>
+      </c>
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F11" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G11" s="60">
+        <f>E11*F11</f>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="90"/>
+      <c r="D12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G12" s="60">
+        <f>E12*F12</f>
+        <v>162</v>
+      </c>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="3:8" ht="18">
+      <c r="C13" s="90"/>
+      <c r="D13" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="60">
+        <f>(36*2+30*2)*4*0.7</f>
+        <v>369.59999999999997</v>
+      </c>
+      <c r="G13" s="60">
+        <f>E13*F13</f>
+        <v>36.96</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="90"/>
+      <c r="D14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G14" s="60">
+        <f>E14*F14</f>
+        <v>108</v>
+      </c>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="90"/>
+      <c r="D15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G15" s="60">
+        <f>E15*F15</f>
+        <v>108</v>
+      </c>
+      <c r="H15" s="61"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="91"/>
+      <c r="D16" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="62">
+        <f>SUM(G11:G15)</f>
+        <v>717.36</v>
+      </c>
+      <c r="H16" s="61"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G17" s="60">
+        <f>E17*F17</f>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="90"/>
+      <c r="D18" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G18" s="60">
+        <f>E18*F18</f>
+        <v>162</v>
+      </c>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="19" spans="3:10" ht="18">
+      <c r="C19" s="90"/>
+      <c r="D19" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="60">
+        <f>(36*2+30*2)*4*0.7</f>
+        <v>369.59999999999997</v>
+      </c>
+      <c r="G19" s="60">
+        <f>E19*F19</f>
+        <v>36.96</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="90"/>
+      <c r="D20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G20" s="60">
+        <f>E20*F20</f>
+        <v>108</v>
+      </c>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="90"/>
+      <c r="D21" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G21" s="60">
+        <f>E21*F21</f>
+        <v>108</v>
+      </c>
+      <c r="H21" s="61"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="91"/>
+      <c r="D22" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="62">
+        <f>SUM(G17:G21)</f>
+        <v>717.36</v>
+      </c>
+      <c r="H22" s="61"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F23" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G23" s="60">
+        <f>E23*F23</f>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="90"/>
+      <c r="D24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G24" s="60">
+        <f>E24*F24</f>
+        <v>162</v>
+      </c>
+      <c r="H24" s="61"/>
+    </row>
+    <row r="25" spans="3:10" ht="18">
+      <c r="C25" s="90"/>
+      <c r="D25" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="60">
+        <f>(36*2+30*2)*4*0.7</f>
+        <v>369.59999999999997</v>
+      </c>
+      <c r="G25" s="60">
+        <f>E25*F25</f>
+        <v>36.96</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="90"/>
+      <c r="D26" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G26" s="60">
+        <f>E26*F26</f>
+        <v>108</v>
+      </c>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="90"/>
+      <c r="D27" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="60">
+        <f>36*30</f>
+        <v>1080</v>
+      </c>
+      <c r="G27" s="60">
+        <f>E27*F27</f>
+        <v>108</v>
+      </c>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="91"/>
+      <c r="D28" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="62">
+        <f>SUM(G23:G27)</f>
+        <v>717.36</v>
+      </c>
+      <c r="H28" s="61"/>
+    </row>
+    <row r="29" spans="3:10" ht="17" thickBot="1">
+      <c r="C29" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="63">
+        <f>G10+G16+G22+G28</f>
+        <v>2806.9600000000005</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="J29" s="56">
+        <f>G29/30/36</f>
+        <v>2.5990370370370375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D22:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" style="48"/>
+    <col min="2" max="2" width="17.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="22">
+        <v>284911.34164650377</v>
+      </c>
+      <c r="C3" s="22">
+        <f>B3</f>
+        <v>284911.34164650377</v>
+      </c>
+      <c r="D3" s="22">
+        <f>C3/4</f>
+        <v>71227.835411625943</v>
+      </c>
+      <c r="E3" s="22">
+        <f>D3/2/4.5*(4.5^2+3.8^2)^0.5</f>
+        <v>46613.250302294982</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="22">
+        <v>226962.21717674812</v>
+      </c>
+      <c r="C4" s="22">
+        <f>C3+B4</f>
+        <v>511873.55882325186</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D6" si="0">C4/4</f>
+        <v>127968.38970581297</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E6" si="1">D4/2/4.5*(4.5^2+3.8^2)^0.5</f>
+        <v>83745.666924549922</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="22">
+        <v>151308.14478449876</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" ref="C5:C6" si="2">C4+B5</f>
+        <v>663181.70360775059</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
+        <v>165795.42590193765</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="1"/>
+        <v>108500.61133938655</v>
+      </c>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="22">
+        <v>75654.072392249378</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="2"/>
+        <v>738835.77599999995</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
+        <v>184708.94399999999</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="1"/>
+        <v>120878.08354680486</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="113"/>
+      <c r="D9" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="46">
+        <v>55</v>
+      </c>
+      <c r="C10" s="46">
+        <v>55</v>
+      </c>
+      <c r="D10" s="46">
+        <f>B10*C10/10^6</f>
+        <v>3.0249999999999999E-3</v>
+      </c>
+      <c r="E10" s="46">
+        <f>0.9*D10*3.5*10^7</f>
+        <v>95287.500000000015</v>
+      </c>
+      <c r="F10" s="44">
+        <f>E3/E10</f>
+        <v>0.48918536326690254</v>
+      </c>
+      <c r="G10" s="48">
+        <f>20411.659/D10/(3.5*10^7)</f>
+        <v>0.19279016765053128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="46">
+        <v>55</v>
+      </c>
+      <c r="C11" s="46">
+        <v>55</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" ref="D11:D13" si="3">B11*C11/10^6</f>
+        <v>3.0249999999999999E-3</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" ref="E11:E13" si="4">0.9*D11*3.5*10^7</f>
+        <v>95287.500000000015</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" ref="F11:F13" si="5">E4/E11</f>
+        <v>0.87887358703449991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="46">
+        <v>65</v>
+      </c>
+      <c r="C12" s="46">
+        <v>65</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="3"/>
+        <v>4.2249999999999996E-3</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="4"/>
+        <v>133087.5</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="5"/>
+        <v>0.81525771646012246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="46">
+        <v>65</v>
+      </c>
+      <c r="C13" s="46">
+        <v>65</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="3"/>
+        <v>4.2249999999999996E-3</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="4"/>
+        <v>133087.5</v>
+      </c>
+      <c r="F13" s="44">
+        <f t="shared" si="5"/>
+        <v>0.90826023140268519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="22">
+        <f>(4.5^2+3.8^2)^0.5</f>
+        <v>5.8898217290508885</v>
+      </c>
+      <c r="C15" s="22">
+        <f>E10/0.9*1.3*1.1</f>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="D15" s="22">
+        <f>E10/0.9*1.3*1.1*1.1</f>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="E15" s="22">
+        <f>F15*D10/B15</f>
+        <v>10470904.95157719</v>
+      </c>
+      <c r="F15" s="22">
+        <v>20387359836.901115</v>
+      </c>
+      <c r="G15" s="48">
+        <f>C15*0.9</f>
+        <v>136261.12500000006</v>
+      </c>
+      <c r="H15" s="48">
+        <f>D15*0.9</f>
+        <v>149887.23750000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="22">
+        <f t="shared" ref="B16:B18" si="6">(4.5^2+3.8^2)^0.5</f>
+        <v>5.8898217290508885</v>
+      </c>
+      <c r="C16" s="22">
+        <f>E11/0.9*1.3*1.1</f>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="D16" s="22">
+        <f>E11/0.9*1.3*1.1*1.1</f>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="E16" s="22">
+        <f>F16*D11/B16</f>
+        <v>10470904.95157719</v>
+      </c>
+      <c r="F16" s="22">
+        <v>20387359836.901115</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" ref="G16:G18" si="7">C16*0.9</f>
+        <v>136261.12500000006</v>
+      </c>
+      <c r="H16" s="48">
+        <f t="shared" ref="H16:H18" si="8">D16*0.9</f>
+        <v>149887.23750000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="22">
+        <f t="shared" si="6"/>
+        <v>5.8898217290508885</v>
+      </c>
+      <c r="C17" s="22">
+        <f>E12/0.9*1.3*1.1</f>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="D17" s="22">
+        <f>E12/0.9*1.3*1.1*1.1</f>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="E17" s="22">
+        <f>F17*D12/B17</f>
+        <v>14624652.370384671</v>
+      </c>
+      <c r="F17" s="22">
+        <v>20387359836.901119</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="7"/>
+        <v>190315.12500000003</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="8"/>
+        <v>209346.63750000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="22">
+        <f t="shared" si="6"/>
+        <v>5.8898217290508885</v>
+      </c>
+      <c r="C18" s="22">
+        <f>E13/0.9*1.3*1.1</f>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="D18" s="22">
+        <f>E13/0.9*1.3*1.1*1.1</f>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="E18" s="22">
+        <f>F18*D13/B18</f>
+        <v>14624652.370384671</v>
+      </c>
+      <c r="F18" s="22">
+        <v>20387359836.901119</v>
+      </c>
+      <c r="G18" s="48">
+        <f t="shared" si="7"/>
+        <v>190315.12500000003</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="8"/>
+        <v>209346.63750000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="22">
+        <f t="shared" ref="B22:C25" si="9">C15</f>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="C22" s="22">
+        <f t="shared" si="9"/>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="D22" s="36">
+        <f>(B22*4.5/(4.5^2+3.8^2)^0.5+C22*4.5/(4.5^2+3.8^2)^0.5)/2</f>
+        <v>121458.83851144646</v>
+      </c>
+      <c r="E22" s="36">
+        <f>(-B22*3.8/(4.5^2+3.8^2)^0.5+C22*3.8/(4.5^2+3.8^2)^0.5)/2</f>
+        <v>4884.059114746</v>
+      </c>
+      <c r="F22" s="22">
+        <f>E22*9/2</f>
+        <v>21978.266016357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="22">
+        <f t="shared" si="9"/>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="C23" s="22">
+        <f t="shared" si="9"/>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="D23" s="36">
+        <f t="shared" ref="D23:D25" si="10">(B23*4.5/(4.5^2+3.8^2)^0.5+C23*4.5/(4.5^2+3.8^2)^0.5)/2</f>
+        <v>121458.83851144646</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" ref="E23:E25" si="11">(-B23*3.8/(4.5^2+3.8^2)^0.5+C23*3.8/(4.5^2+3.8^2)^0.5)/2</f>
+        <v>4884.059114746</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" ref="F23:F25" si="12">E23*9/2</f>
+        <v>21978.266016357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="22">
+        <f t="shared" si="9"/>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="9"/>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="D24" s="36">
+        <f t="shared" si="10"/>
+        <v>169640.85709449957</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="11"/>
+        <v>6821.5371106782841</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="12"/>
+        <v>30696.916998052278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="22">
+        <f t="shared" si="9"/>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" si="9"/>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="D25" s="36">
+        <f t="shared" si="10"/>
+        <v>169640.85709449957</v>
+      </c>
+      <c r="E25" s="36">
+        <f t="shared" si="11"/>
+        <v>6821.5371106782841</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="12"/>
+        <v>30696.916998052278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="114"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D29" s="44">
+        <f>4.5/C29*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
+        <v>0.80285504574333078</v>
+      </c>
+      <c r="E29" s="22">
+        <f>EXP(1)^(-0.419*D29^2)*3.5*10^7*0.0132</f>
+        <v>352654.01648501609</v>
+      </c>
+      <c r="F29" s="44">
+        <f>D22/E29/0.85</f>
+        <v>0.4051924677171751</v>
+      </c>
+      <c r="G29" s="44">
+        <f>D22/(3.5*10^7*0.0132)/0.9</f>
+        <v>0.29210879872882745</v>
+      </c>
+      <c r="H29" s="22">
+        <f>2.116/10^3*3.5*10^7</f>
+        <v>74060.000000000015</v>
+      </c>
+      <c r="I29" s="43">
+        <f>8/9*F22/H29/0.9/1.1</f>
+        <v>0.26645385067231858</v>
+      </c>
+      <c r="J29" s="43">
+        <f>G29+I29</f>
+        <v>0.55856264940114597</v>
+      </c>
+      <c r="K29" s="43">
+        <f>F29+I29</f>
+        <v>0.67164631838949362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D30" s="44">
+        <f t="shared" ref="D30:D32" si="13">4.5/C30*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
+        <v>0.80285504574333078</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" ref="E30:E32" si="14">EXP(1)^(-0.419*D30^2)*3.5*10^7*0.0132</f>
+        <v>352654.01648501609</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" ref="F30:F32" si="15">D23/E30/0.85</f>
+        <v>0.4051924677171751</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" ref="G30:G32" si="16">D23/(3.5*10^7*0.0132)/0.9</f>
+        <v>0.29210879872882745</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" ref="H30:H32" si="17">2.116/10^3*3.5*10^7</f>
+        <v>74060.000000000015</v>
+      </c>
+      <c r="I30" s="43">
+        <f t="shared" ref="I30:I32" si="18">8/9*F23/H30/0.9/1.1</f>
+        <v>0.26645385067231858</v>
+      </c>
+      <c r="J30" s="43">
+        <f t="shared" ref="J30:J32" si="19">G30+I30</f>
+        <v>0.55856264940114597</v>
+      </c>
+      <c r="K30" s="43">
+        <f t="shared" ref="K30:K32" si="20">F30+I30</f>
+        <v>0.67164631838949362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="13"/>
+        <v>0.80285504574333078</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="14"/>
+        <v>352654.01648501609</v>
+      </c>
+      <c r="F31" s="44">
+        <f t="shared" si="15"/>
+        <v>0.56592997557192215</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="16"/>
+        <v>0.40798666929894079</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="17"/>
+        <v>74060.000000000015</v>
+      </c>
+      <c r="I31" s="43">
+        <f t="shared" si="18"/>
+        <v>0.37215455176546897</v>
+      </c>
+      <c r="J31" s="43">
+        <f t="shared" si="19"/>
+        <v>0.78014122106440975</v>
+      </c>
+      <c r="K31" s="43">
+        <f t="shared" si="20"/>
+        <v>0.93808452733739112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="13"/>
+        <v>0.80285504574333078</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="14"/>
+        <v>352654.01648501609</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="15"/>
+        <v>0.56592997557192215</v>
+      </c>
+      <c r="G32" s="44">
+        <f t="shared" si="16"/>
+        <v>0.40798666929894079</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="17"/>
+        <v>74060.000000000015</v>
+      </c>
+      <c r="I32" s="43">
+        <f t="shared" si="18"/>
+        <v>0.37215455176546897</v>
+      </c>
+      <c r="J32" s="43">
+        <f t="shared" si="19"/>
+        <v>0.78014122106440975</v>
+      </c>
+      <c r="K32" s="43">
+        <f t="shared" si="20"/>
+        <v>0.93808452733739112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+    </row>
+    <row r="35" spans="1:7" ht="48">
+      <c r="A35" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="22">
+        <f>C15</f>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="C36" s="22">
+        <f>D15</f>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="D36" s="36">
+        <v>94579.611068549304</v>
+      </c>
+      <c r="E36" s="36">
+        <v>104037.57217540425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="22">
+        <f t="shared" ref="B37:C39" si="21">C16</f>
+        <v>151401.25000000006</v>
+      </c>
+      <c r="C37" s="22">
+        <f t="shared" si="21"/>
+        <v>166541.37500000009</v>
+      </c>
+      <c r="D37" s="36">
+        <v>198617.18324395354</v>
+      </c>
+      <c r="E37" s="36">
+        <v>198617.18324395356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="22">
+        <f t="shared" si="21"/>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" si="21"/>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="D38" s="36">
+        <v>190957.01639707931</v>
+      </c>
+      <c r="E38" s="36">
+        <v>206277.35009082779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="22">
+        <f t="shared" si="21"/>
+        <v>211461.25000000003</v>
+      </c>
+      <c r="C39" s="22">
+        <f t="shared" si="21"/>
+        <v>232607.37500000006</v>
+      </c>
+      <c r="D39" s="36">
+        <v>351820.52018143842</v>
+      </c>
+      <c r="E39" s="36">
+        <v>367140.85387518688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D43" s="44">
+        <f>3.8/C43*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
+        <v>0.67796648307214591</v>
+      </c>
+      <c r="E43" s="22">
+        <f>EXP(1)^(-0.419*D43^2)*3.5*10^7*0.0132</f>
+        <v>381067.42871513253</v>
+      </c>
+      <c r="F43" s="44">
+        <f>D36/E43/0.85</f>
+        <v>0.291995910130807</v>
+      </c>
+      <c r="G43" s="44">
+        <f>E36/(3.5*10^7*0.0132)/0.9</f>
+        <v>0.25021061129245847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="46">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" ref="D44:D46" si="22">3.8/C44*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
+        <v>0.67796648307214591</v>
+      </c>
+      <c r="E44" s="22">
+        <f>EXP(1)^(-0.419*D44^2)*3.5*10^7*0.0132</f>
+        <v>381067.42871513253</v>
+      </c>
+      <c r="F44" s="44">
+        <f t="shared" ref="F44:F46" si="23">D37/E44/0.85</f>
+        <v>0.61319141127469468</v>
+      </c>
+      <c r="G44" s="44">
+        <f>E37/(3.5*10^7*0.0132)/0.9</f>
+        <v>0.47767480337651169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D45" s="44">
+        <f t="shared" si="22"/>
+        <v>0.49119336371599598</v>
+      </c>
+      <c r="E45" s="22">
+        <f>EXP(1)^(-0.419*D45^2)*3.5*10^7*0.0369</f>
+        <v>1167321.5113931217</v>
+      </c>
+      <c r="F45" s="44">
+        <f t="shared" si="23"/>
+        <v>0.19245367382994358</v>
+      </c>
+      <c r="G45" s="44">
+        <f>E38/(3.5*10^7*0.0369)/0.9</f>
+        <v>0.1774657806089627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D46" s="44">
+        <f t="shared" si="22"/>
+        <v>0.49119336371599598</v>
+      </c>
+      <c r="E46" s="22">
+        <f>EXP(1)^(-0.419*D46^2)*3.5*10^7*0.0369</f>
+        <v>1167321.5113931217</v>
+      </c>
+      <c r="F46" s="44">
+        <f t="shared" si="23"/>
+        <v>0.35457797212794767</v>
+      </c>
+      <c r="G46" s="44">
+        <f>E39/(3.5*10^7*0.0369)/0.9</f>
+        <v>0.31586084559314054</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A27:K27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="C3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="73"/>
-    <col min="3" max="3" width="8" style="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="73"/>
+    <col min="1" max="2" width="8.83203125" style="56"/>
+    <col min="3" max="3" width="8" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="91" t="s">
+    <row r="3" spans="3:12" ht="17" thickBot="1"/>
+    <row r="4" spans="3:12" ht="17" thickBot="1">
+      <c r="C4" s="78" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-    </row>
-    <row r="5" spans="3:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+    </row>
+    <row r="5" spans="3:12" ht="17" thickTop="1">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="67">
         <f>質量!G29*0.1576</f>
         <v>442.37689600000004</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="69">
         <f>質量!G29*0.1905</f>
         <v>534.72588000000007</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-    </row>
-    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="102" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="3:12" ht="18">
+      <c r="C6" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="104" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="102" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="73">
         <f>質量!G$10</f>
         <v>654.88000000000011</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="73">
         <v>16</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="60">
         <f>D7*E7</f>
         <v>10478.080000000002</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="77">
         <f>H$5*F7/F$11</f>
         <v>167.36982740535672</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108">
+      <c r="H7" s="77"/>
+      <c r="I7" s="77">
         <f>J$5*F7/F$11</f>
         <v>202.3093408675156</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="102" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="73">
         <f>質量!G$16</f>
         <v>717.36</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="73">
         <v>12</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="60">
         <f t="shared" ref="F8:F10" si="0">D8*E8</f>
         <v>8608.32</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="77">
         <f>H$5*F8/F$11</f>
         <v>137.50353429732166</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108">
+      <c r="H8" s="77"/>
+      <c r="I8" s="77">
         <f>J$5*F8/F$11</f>
         <v>166.20826956624222</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="102" t="s">
+      <c r="J8" s="87"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="73">
         <f>質量!G$22</f>
         <v>717.36</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="73">
         <v>8</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>5738.88</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="77">
         <f>H$5*F9/F$11</f>
         <v>91.669022864881114</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108">
+      <c r="H9" s="77"/>
+      <c r="I9" s="77">
         <f>J$5*F9/F$11</f>
         <v>110.8055130441615</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="102" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="73">
         <f>質量!G$28</f>
         <v>717.36</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="73">
         <v>4</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="60">
         <f t="shared" si="0"/>
         <v>2869.44</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G10" s="77">
         <f>H$5*F10/F$11</f>
         <v>45.834511432440557</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77">
         <f>J$5*F10/F$11</f>
         <v>55.40275652208075</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-    </row>
-    <row r="11" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="110" t="s">
+      <c r="J10" s="87"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="3:12" ht="17" thickBot="1">
+      <c r="C11" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="74">
         <f>SUM(F7:F10)</f>
         <v>27694.720000000001</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="83">
         <f>SUM(G7:H10)</f>
         <v>442.37689600000004</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83">
         <f>SUM(I7:J10)</f>
         <v>534.72588000000007</v>
       </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3684,1747 +5456,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B9E07-76B7-DF41-90AB-32BF9173A628}">
+  <dimension ref="C3:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="48"/>
-    <col min="2" max="2" width="17.625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="48"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="3:10" ht="16" thickBot="1"/>
+    <row r="4" spans="3:10" ht="48" thickBot="1">
+      <c r="C4" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="120" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="16" thickTop="1">
+      <c r="C5" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="22">
-        <v>284911.34164650377</v>
-      </c>
-      <c r="C3" s="22">
-        <f>B3</f>
-        <v>284911.34164650377</v>
-      </c>
-      <c r="D3" s="22">
-        <f>C3/4</f>
-        <v>71227.835411625943</v>
-      </c>
-      <c r="E3" s="22">
-        <f>D3/2/4.5*(4.5^2+3.8^2)^0.5</f>
-        <v>46613.250302294982</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="22">
-        <v>226962.21717674812</v>
-      </c>
-      <c r="C4" s="22">
-        <f>C3+B4</f>
-        <v>511873.55882325186</v>
-      </c>
-      <c r="D4" s="22">
-        <f t="shared" ref="D4:D6" si="0">C4/4</f>
-        <v>127968.38970581297</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ref="E4:E6" si="1">D4/2/4.5*(4.5^2+3.8^2)^0.5</f>
-        <v>83745.666924549922</v>
-      </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="22">
-        <v>151308.14478449876</v>
-      </c>
-      <c r="C5" s="22">
-        <f t="shared" ref="C5:C6" si="2">C4+B5</f>
-        <v>663181.70360775059</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="D5" s="117">
+        <v>36</v>
+      </c>
+      <c r="E5" s="117">
+        <v>30</v>
+      </c>
+      <c r="F5" s="117">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="125">
+        <f>質量!G10</f>
+        <v>654.88000000000011</v>
+      </c>
+      <c r="H5" s="127">
+        <f>(E$5^2+F$5^2)/12*G5</f>
+        <v>49117.227900000005</v>
+      </c>
+      <c r="I5" s="127">
+        <f>(D$5^2+F$5^2)/12*G5</f>
+        <v>70728.267900000006</v>
+      </c>
+      <c r="J5" s="128">
+        <f>(D5^2+E5^2)/12*G5</f>
+        <v>119843.04000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="115">
+        <v>36</v>
+      </c>
+      <c r="E6" s="117">
+        <v>30</v>
+      </c>
+      <c r="F6" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="125">
+        <f>質量!G16</f>
+        <v>717.36</v>
+      </c>
+      <c r="H6" s="129">
+        <f>(E$5^2+F$5^2)/12*G6</f>
+        <v>53803.345049999996</v>
+      </c>
+      <c r="I6" s="129">
+        <f>(D$5^2+F$5^2)/12*G6</f>
+        <v>77476.225049999994</v>
+      </c>
+      <c r="J6" s="130">
+        <f t="shared" ref="J6:J8" si="0">(D6^2+E6^2)/12*G6</f>
+        <v>131276.88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="115">
+        <v>36</v>
+      </c>
+      <c r="E7" s="117">
+        <v>30</v>
+      </c>
+      <c r="F7" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="125">
+        <f>質量!G22</f>
+        <v>717.36</v>
+      </c>
+      <c r="H7" s="129">
+        <f>(E$5^2+F$5^2)/12*G7</f>
+        <v>53803.345049999996</v>
+      </c>
+      <c r="I7" s="129">
+        <f>(D$5^2+F$5^2)/12*G7</f>
+        <v>77476.225049999994</v>
+      </c>
+      <c r="J7" s="130">
         <f t="shared" si="0"/>
-        <v>165795.42590193765</v>
-      </c>
-      <c r="E5" s="22">
-        <f t="shared" si="1"/>
-        <v>108500.61133938655</v>
-      </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="22">
-        <v>75654.072392249378</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="2"/>
-        <v>738835.77599999995</v>
-      </c>
-      <c r="D6" s="22">
+        <v>131276.88</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="16" thickBot="1">
+      <c r="C8" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="116">
+        <v>36</v>
+      </c>
+      <c r="E8" s="116">
+        <v>30</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="126">
+        <f>質量!G28</f>
+        <v>717.36</v>
+      </c>
+      <c r="H8" s="131">
+        <f>(E$5^2+F$5^2)/12*G8</f>
+        <v>53803.345049999996</v>
+      </c>
+      <c r="I8" s="131">
+        <f>(D$5^2+F$5^2)/12*G8</f>
+        <v>77476.225049999994</v>
+      </c>
+      <c r="J8" s="132">
         <f t="shared" si="0"/>
-        <v>184708.94399999999</v>
-      </c>
-      <c r="E6" s="22">
-        <f t="shared" si="1"/>
-        <v>120878.08354680486</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="46">
-        <v>55</v>
-      </c>
-      <c r="C10" s="46">
-        <v>55</v>
-      </c>
-      <c r="D10" s="46">
-        <f>B10*C10/10^6</f>
-        <v>3.0249999999999999E-3</v>
-      </c>
-      <c r="E10" s="46">
-        <f>0.9*D10*3.5*10^7</f>
-        <v>95287.500000000015</v>
-      </c>
-      <c r="F10" s="44">
-        <f>E3/E10</f>
-        <v>0.48918536326690254</v>
-      </c>
-      <c r="G10" s="48">
-        <f>20411.659/D10/(3.5*10^7)</f>
-        <v>0.19279016765053128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="46">
-        <v>55</v>
-      </c>
-      <c r="C11" s="46">
-        <v>55</v>
-      </c>
-      <c r="D11" s="46">
-        <f t="shared" ref="D11:D13" si="3">B11*C11/10^6</f>
-        <v>3.0249999999999999E-3</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" ref="E11:E13" si="4">0.9*D11*3.5*10^7</f>
-        <v>95287.500000000015</v>
-      </c>
-      <c r="F11" s="44">
-        <f t="shared" ref="F11:F13" si="5">E4/E11</f>
-        <v>0.87887358703449991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="46">
-        <v>65</v>
-      </c>
-      <c r="C12" s="46">
-        <v>65</v>
-      </c>
-      <c r="D12" s="46">
-        <f t="shared" si="3"/>
-        <v>4.2249999999999996E-3</v>
-      </c>
-      <c r="E12" s="46">
-        <f t="shared" si="4"/>
-        <v>133087.5</v>
-      </c>
-      <c r="F12" s="44">
-        <f t="shared" si="5"/>
-        <v>0.81525771646012246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="46">
-        <v>65</v>
-      </c>
-      <c r="C13" s="46">
-        <v>65</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" si="3"/>
-        <v>4.2249999999999996E-3</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="4"/>
-        <v>133087.5</v>
-      </c>
-      <c r="F13" s="44">
-        <f t="shared" si="5"/>
-        <v>0.90826023140268519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="22">
-        <f>(4.5^2+3.8^2)^0.5</f>
-        <v>5.8898217290508885</v>
-      </c>
-      <c r="C15" s="22">
-        <f>E10/0.9*1.3*1.1</f>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="D15" s="22">
-        <f>E10/0.9*1.3*1.1*1.1</f>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="E15" s="22">
-        <f>F15*D10/B15</f>
-        <v>10470904.95157719</v>
-      </c>
-      <c r="F15" s="22">
-        <v>20387359836.901115</v>
-      </c>
-      <c r="G15" s="48">
-        <f>C15*0.9</f>
-        <v>136261.12500000006</v>
-      </c>
-      <c r="H15" s="48">
-        <f>D15*0.9</f>
-        <v>149887.23750000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="22">
-        <f t="shared" ref="B16:B18" si="6">(4.5^2+3.8^2)^0.5</f>
-        <v>5.8898217290508885</v>
-      </c>
-      <c r="C16" s="22">
-        <f>E11/0.9*1.3*1.1</f>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="D16" s="22">
-        <f>E11/0.9*1.3*1.1*1.1</f>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="E16" s="22">
-        <f>F16*D11/B16</f>
-        <v>10470904.95157719</v>
-      </c>
-      <c r="F16" s="22">
-        <v>20387359836.901115</v>
-      </c>
-      <c r="G16" s="48">
-        <f t="shared" ref="G16:G18" si="7">C16*0.9</f>
-        <v>136261.12500000006</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" ref="H16:H18" si="8">D16*0.9</f>
-        <v>149887.23750000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="22">
-        <f t="shared" si="6"/>
-        <v>5.8898217290508885</v>
-      </c>
-      <c r="C17" s="22">
-        <f>E12/0.9*1.3*1.1</f>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="D17" s="22">
-        <f>E12/0.9*1.3*1.1*1.1</f>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="E17" s="22">
-        <f>F17*D12/B17</f>
-        <v>14624652.370384671</v>
-      </c>
-      <c r="F17" s="22">
-        <v>20387359836.901119</v>
-      </c>
-      <c r="G17" s="48">
-        <f t="shared" si="7"/>
-        <v>190315.12500000003</v>
-      </c>
-      <c r="H17" s="48">
-        <f t="shared" si="8"/>
-        <v>209346.63750000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="22">
-        <f t="shared" si="6"/>
-        <v>5.8898217290508885</v>
-      </c>
-      <c r="C18" s="22">
-        <f>E13/0.9*1.3*1.1</f>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="D18" s="22">
-        <f>E13/0.9*1.3*1.1*1.1</f>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="E18" s="22">
-        <f>F18*D13/B18</f>
-        <v>14624652.370384671</v>
-      </c>
-      <c r="F18" s="22">
-        <v>20387359836.901119</v>
-      </c>
-      <c r="G18" s="48">
-        <f t="shared" si="7"/>
-        <v>190315.12500000003</v>
-      </c>
-      <c r="H18" s="48">
-        <f t="shared" si="8"/>
-        <v>209346.63750000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="22">
-        <f t="shared" ref="B22:C25" si="9">C15</f>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="C22" s="22">
-        <f t="shared" si="9"/>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="D22" s="36">
-        <f>(B22*4.5/(4.5^2+3.8^2)^0.5+C22*4.5/(4.5^2+3.8^2)^0.5)/2</f>
-        <v>121458.83851144646</v>
-      </c>
-      <c r="E22" s="36">
-        <f>(-B22*3.8/(4.5^2+3.8^2)^0.5+C22*3.8/(4.5^2+3.8^2)^0.5)/2</f>
-        <v>4884.059114746</v>
-      </c>
-      <c r="F22" s="22">
-        <f>E22*9/2</f>
-        <v>21978.266016357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="22">
-        <f t="shared" si="9"/>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="C23" s="22">
-        <f t="shared" si="9"/>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="D23" s="36">
-        <f t="shared" ref="D23:D25" si="10">(B23*4.5/(4.5^2+3.8^2)^0.5+C23*4.5/(4.5^2+3.8^2)^0.5)/2</f>
-        <v>121458.83851144646</v>
-      </c>
-      <c r="E23" s="36">
-        <f t="shared" ref="E23:E25" si="11">(-B23*3.8/(4.5^2+3.8^2)^0.5+C23*3.8/(4.5^2+3.8^2)^0.5)/2</f>
-        <v>4884.059114746</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" ref="F23:F25" si="12">E23*9/2</f>
-        <v>21978.266016357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="22">
-        <f t="shared" si="9"/>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="C24" s="22">
-        <f t="shared" si="9"/>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="D24" s="36">
-        <f t="shared" si="10"/>
-        <v>169640.85709449957</v>
-      </c>
-      <c r="E24" s="36">
-        <f t="shared" si="11"/>
-        <v>6821.5371106782841</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="12"/>
-        <v>30696.916998052278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="22">
-        <f t="shared" si="9"/>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="C25" s="22">
-        <f t="shared" si="9"/>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="D25" s="36">
-        <f t="shared" si="10"/>
-        <v>169640.85709449957</v>
-      </c>
-      <c r="E25" s="36">
-        <f t="shared" si="11"/>
-        <v>6821.5371106782841</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="12"/>
-        <v>30696.916998052278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="72"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D29" s="44">
-        <f>4.5/C29*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
-        <v>0.80285504574333078</v>
-      </c>
-      <c r="E29" s="22">
-        <f>EXP(1)^(-0.419*D29^2)*3.5*10^7*0.0132</f>
-        <v>352654.01648501609</v>
-      </c>
-      <c r="F29" s="44">
-        <f>D22/E29/0.85</f>
-        <v>0.4051924677171751</v>
-      </c>
-      <c r="G29" s="44">
-        <f>D22/(3.5*10^7*0.0132)/0.9</f>
-        <v>0.29210879872882745</v>
-      </c>
-      <c r="H29" s="22">
-        <f>2.116/10^3*3.5*10^7</f>
-        <v>74060.000000000015</v>
-      </c>
-      <c r="I29" s="43">
-        <f>8/9*F22/H29/0.9/1.1</f>
-        <v>0.26645385067231858</v>
-      </c>
-      <c r="J29" s="43">
-        <f>G29+I29</f>
-        <v>0.55856264940114597</v>
-      </c>
-      <c r="K29" s="43">
-        <f>F29+I29</f>
-        <v>0.67164631838949362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D30" s="44">
-        <f t="shared" ref="D30:D32" si="13">4.5/C30*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
-        <v>0.80285504574333078</v>
-      </c>
-      <c r="E30" s="22">
-        <f t="shared" ref="E30:E32" si="14">EXP(1)^(-0.419*D30^2)*3.5*10^7*0.0132</f>
-        <v>352654.01648501609</v>
-      </c>
-      <c r="F30" s="44">
-        <f t="shared" ref="F30:F32" si="15">D23/E30/0.85</f>
-        <v>0.4051924677171751</v>
-      </c>
-      <c r="G30" s="44">
-        <f t="shared" ref="G30:G32" si="16">D23/(3.5*10^7*0.0132)/0.9</f>
-        <v>0.29210879872882745</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" ref="H30:H32" si="17">2.116/10^3*3.5*10^7</f>
-        <v>74060.000000000015</v>
-      </c>
-      <c r="I30" s="43">
-        <f t="shared" ref="I30:I32" si="18">8/9*F23/H30/0.9/1.1</f>
-        <v>0.26645385067231858</v>
-      </c>
-      <c r="J30" s="43">
-        <f t="shared" ref="J30:J32" si="19">G30+I30</f>
-        <v>0.55856264940114597</v>
-      </c>
-      <c r="K30" s="43">
-        <f t="shared" ref="K30:K32" si="20">F30+I30</f>
-        <v>0.67164631838949362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D31" s="44">
-        <f t="shared" si="13"/>
-        <v>0.80285504574333078</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="14"/>
-        <v>352654.01648501609</v>
-      </c>
-      <c r="F31" s="44">
-        <f t="shared" si="15"/>
-        <v>0.56592997557192215</v>
-      </c>
-      <c r="G31" s="44">
-        <f t="shared" si="16"/>
-        <v>0.40798666929894079</v>
-      </c>
-      <c r="H31" s="22">
-        <f t="shared" si="17"/>
-        <v>74060.000000000015</v>
-      </c>
-      <c r="I31" s="43">
-        <f t="shared" si="18"/>
-        <v>0.37215455176546897</v>
-      </c>
-      <c r="J31" s="43">
-        <f t="shared" si="19"/>
-        <v>0.78014122106440975</v>
-      </c>
-      <c r="K31" s="43">
-        <f t="shared" si="20"/>
-        <v>0.93808452733739112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D32" s="44">
-        <f t="shared" si="13"/>
-        <v>0.80285504574333078</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="14"/>
-        <v>352654.01648501609</v>
-      </c>
-      <c r="F32" s="44">
-        <f t="shared" si="15"/>
-        <v>0.56592997557192215</v>
-      </c>
-      <c r="G32" s="44">
-        <f t="shared" si="16"/>
-        <v>0.40798666929894079</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" si="17"/>
-        <v>74060.000000000015</v>
-      </c>
-      <c r="I32" s="43">
-        <f t="shared" si="18"/>
-        <v>0.37215455176546897</v>
-      </c>
-      <c r="J32" s="43">
-        <f t="shared" si="19"/>
-        <v>0.78014122106440975</v>
-      </c>
-      <c r="K32" s="43">
-        <f t="shared" si="20"/>
-        <v>0.93808452733739112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-    </row>
-    <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="22">
-        <f>C15</f>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="C36" s="22">
-        <f>D15</f>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="D36" s="36">
-        <v>94579.611068549304</v>
-      </c>
-      <c r="E36" s="36">
-        <v>104037.57217540425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="22">
-        <f t="shared" ref="B37:C39" si="21">C16</f>
-        <v>151401.25000000006</v>
-      </c>
-      <c r="C37" s="22">
-        <f t="shared" si="21"/>
-        <v>166541.37500000009</v>
-      </c>
-      <c r="D37" s="36">
-        <v>198617.18324395354</v>
-      </c>
-      <c r="E37" s="36">
-        <v>198617.18324395356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="22">
-        <f t="shared" si="21"/>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="C38" s="22">
-        <f t="shared" si="21"/>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="D38" s="36">
-        <v>190957.01639707931</v>
-      </c>
-      <c r="E38" s="36">
-        <v>206277.35009082779</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="22">
-        <f t="shared" si="21"/>
-        <v>211461.25000000003</v>
-      </c>
-      <c r="C39" s="22">
-        <f t="shared" si="21"/>
-        <v>232607.37500000006</v>
-      </c>
-      <c r="D39" s="36">
-        <v>351820.52018143842</v>
-      </c>
-      <c r="E39" s="36">
-        <v>367140.85387518688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D43" s="44">
-        <f>3.8/C43*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
-        <v>0.67796648307214591</v>
-      </c>
-      <c r="E43" s="22">
-        <f>EXP(1)^(-0.419*D43^2)*3.5*10^7*0.0132</f>
-        <v>381067.42871513253</v>
-      </c>
-      <c r="F43" s="44">
-        <f>D36/E43/0.85</f>
-        <v>0.291995910130807</v>
-      </c>
-      <c r="G43" s="44">
-        <f>E36/(3.5*10^7*0.0132)/0.9</f>
-        <v>0.25021061129245847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="46">
-        <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="D44" s="44">
-        <f t="shared" ref="D44:D46" si="22">3.8/C44*((3.5*10^7)/(PI()^2*2040*10^7))^0.5</f>
-        <v>0.67796648307214591</v>
-      </c>
-      <c r="E44" s="22">
-        <f>EXP(1)^(-0.419*D44^2)*3.5*10^7*0.0132</f>
-        <v>381067.42871513253</v>
-      </c>
-      <c r="F44" s="44">
-        <f t="shared" ref="F44:F46" si="23">D37/E44/0.85</f>
-        <v>0.61319141127469468</v>
-      </c>
-      <c r="G44" s="44">
-        <f>E37/(3.5*10^7*0.0132)/0.9</f>
-        <v>0.47767480337651169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="22">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D45" s="44">
-        <f t="shared" si="22"/>
-        <v>0.49119336371599598</v>
-      </c>
-      <c r="E45" s="22">
-        <f>EXP(1)^(-0.419*D45^2)*3.5*10^7*0.0369</f>
-        <v>1167321.5113931217</v>
-      </c>
-      <c r="F45" s="44">
-        <f t="shared" si="23"/>
-        <v>0.19245367382994358</v>
-      </c>
-      <c r="G45" s="44">
-        <f>E38/(3.5*10^7*0.0369)/0.9</f>
-        <v>0.1774657806089627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="22">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D46" s="44">
-        <f t="shared" si="22"/>
-        <v>0.49119336371599598</v>
-      </c>
-      <c r="E46" s="22">
-        <f>EXP(1)^(-0.419*D46^2)*3.5*10^7*0.0369</f>
-        <v>1167321.5113931217</v>
-      </c>
-      <c r="F46" s="44">
-        <f t="shared" si="23"/>
-        <v>0.35457797212794767</v>
-      </c>
-      <c r="G46" s="44">
-        <f>E39/(3.5*10^7*0.0369)/0.9</f>
-        <v>0.31586084559314054</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A27:K27"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="C3:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11" style="73"/>
-    <col min="3" max="3" width="3.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="73" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="73"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>379</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="78">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F5" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G5" s="78">
-        <f>E5*F5</f>
-        <v>302.40000000000003</v>
-      </c>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="80"/>
-      <c r="D6" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="F6" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G6" s="78">
-        <f>E6*F6</f>
-        <v>162</v>
-      </c>
-      <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="80"/>
-      <c r="D7" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="78">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="78">
-        <f>(36*2+30*2)*1.4</f>
-        <v>184.79999999999998</v>
-      </c>
-      <c r="G7" s="78">
-        <f>E7*F7</f>
-        <v>18.48</v>
-      </c>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="80"/>
-      <c r="D8" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G8" s="78">
-        <f>E8*F8</f>
-        <v>108</v>
-      </c>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="80"/>
-      <c r="D9" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="78">
-        <v>1</v>
-      </c>
-      <c r="F9" s="78">
-        <v>64</v>
-      </c>
-      <c r="G9" s="78">
-        <f>E9*F9</f>
-        <v>64</v>
-      </c>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="81"/>
-      <c r="D10" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85">
-        <f>SUM(G5:G9)</f>
-        <v>654.88000000000011</v>
-      </c>
-      <c r="H10" s="79"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="78">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F11" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G11" s="78">
-        <f>E11*F11</f>
-        <v>302.40000000000003</v>
-      </c>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="80"/>
-      <c r="D12" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G12" s="78">
-        <f>E12*F12</f>
-        <v>162</v>
-      </c>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="80"/>
-      <c r="D13" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="78">
-        <f>(36*2+30*2)*4*0.7</f>
-        <v>369.59999999999997</v>
-      </c>
-      <c r="G13" s="78">
-        <f>E13*F13</f>
-        <v>36.96</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="80"/>
-      <c r="D14" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G14" s="78">
-        <f>E14*F14</f>
-        <v>108</v>
-      </c>
-      <c r="H14" s="79"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G15" s="78">
-        <f>E15*F15</f>
-        <v>108</v>
-      </c>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="81"/>
-      <c r="D16" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85">
-        <f>SUM(G11:G15)</f>
-        <v>717.36</v>
-      </c>
-      <c r="H16" s="79"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="78">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F17" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G17" s="78">
-        <f>E17*F17</f>
-        <v>302.40000000000003</v>
-      </c>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="80"/>
-      <c r="D18" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G18" s="78">
-        <f>E18*F18</f>
-        <v>162</v>
-      </c>
-      <c r="H18" s="79"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="80"/>
-      <c r="D19" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="78">
-        <f>(36*2+30*2)*4*0.7</f>
-        <v>369.59999999999997</v>
-      </c>
-      <c r="G19" s="78">
-        <f>E19*F19</f>
-        <v>36.96</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="80"/>
-      <c r="D20" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G20" s="78">
-        <f>E20*F20</f>
-        <v>108</v>
-      </c>
-      <c r="H20" s="79"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="80"/>
-      <c r="D21" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G21" s="78">
-        <f>E21*F21</f>
-        <v>108</v>
-      </c>
-      <c r="H21" s="79"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="81"/>
-      <c r="D22" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85">
-        <f>SUM(G17:G21)</f>
-        <v>717.36</v>
-      </c>
-      <c r="H22" s="79"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="78">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F23" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G23" s="78">
-        <f>E23*F23</f>
-        <v>302.40000000000003</v>
-      </c>
-      <c r="H23" s="79"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="80"/>
-      <c r="D24" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="F24" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G24" s="78">
-        <f>E24*F24</f>
-        <v>162</v>
-      </c>
-      <c r="H24" s="79"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="80"/>
-      <c r="D25" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="78">
-        <f>(36*2+30*2)*4*0.7</f>
-        <v>369.59999999999997</v>
-      </c>
-      <c r="G25" s="78">
-        <f>E25*F25</f>
-        <v>36.96</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="80"/>
-      <c r="D26" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G26" s="78">
-        <f>E26*F26</f>
-        <v>108</v>
-      </c>
-      <c r="H26" s="79"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="80"/>
-      <c r="D27" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="78">
-        <f>36*30</f>
-        <v>1080</v>
-      </c>
-      <c r="G27" s="78">
-        <f>E27*F27</f>
-        <v>108</v>
-      </c>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="81"/>
-      <c r="D28" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85">
-        <f>SUM(G23:G27)</f>
-        <v>717.36</v>
-      </c>
-      <c r="H28" s="79"/>
-    </row>
-    <row r="29" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89">
-        <f>G10+G16+G22+G28</f>
-        <v>2806.9600000000005</v>
-      </c>
-      <c r="H29" s="90"/>
-      <c r="J29" s="73">
-        <f>G29/30/36</f>
-        <v>2.5990370370370375</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D22:F22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4">
-        <v>484.04601651199999</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <v>681.94</v>
-      </c>
-      <c r="E6">
-        <v>15.2</v>
-      </c>
-      <c r="F6">
-        <v>10365.488000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.27924205456987061</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7">
-        <v>787608</v>
-      </c>
-      <c r="E7">
-        <v>11.399999999999999</v>
-      </c>
-      <c r="F7">
-        <v>8978731.1999999993</v>
-      </c>
-      <c r="G7">
-        <v>241.88338722871507</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8">
-        <v>787608</v>
-      </c>
-      <c r="E8">
-        <v>7.6</v>
-      </c>
-      <c r="F8">
-        <v>5985820.7999999998</v>
-      </c>
-      <c r="G8">
-        <v>161.25559148581007</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9">
-        <v>787608</v>
-      </c>
-      <c r="E9">
-        <v>3.8</v>
-      </c>
-      <c r="F9">
-        <v>2992910.4</v>
-      </c>
-      <c r="G9">
-        <v>80.627795742905036</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10">
-        <v>17967827.887999997</v>
-      </c>
-      <c r="G10">
-        <v>484.04601651200005</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>385</v>
-      </c>
-      <c r="F14">
-        <v>562.51441371999999</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>386</v>
-      </c>
-      <c r="E15" t="s">
-        <v>387</v>
-      </c>
-      <c r="F15" t="s">
-        <v>388</v>
-      </c>
-      <c r="G15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>681.94</v>
-      </c>
-      <c r="E16">
-        <v>15.2</v>
-      </c>
-      <c r="F16">
-        <v>10365.488000000001</v>
-      </c>
-      <c r="G16">
-        <v>0.32450980950990826</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17">
-        <v>787608</v>
-      </c>
-      <c r="E17">
-        <v>11.399999999999999</v>
-      </c>
-      <c r="F17">
-        <v>8978731.1999999993</v>
-      </c>
-      <c r="G17">
-        <v>281.09495195524511</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18">
-        <v>787608</v>
-      </c>
-      <c r="E18">
-        <v>7.6</v>
-      </c>
-      <c r="F18">
-        <v>5985820.7999999998</v>
-      </c>
-      <c r="G18">
-        <v>187.39663463683004</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D19">
-        <v>787608</v>
-      </c>
-      <c r="E19">
-        <v>3.8</v>
-      </c>
-      <c r="F19">
-        <v>2992910.4</v>
-      </c>
-      <c r="G19">
-        <v>93.698317318415022</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>391</v>
-      </c>
-      <c r="F20">
-        <v>17967827.887999997</v>
-      </c>
-      <c r="G20">
-        <v>562.51441371999999</v>
+        <v>131276.88</v>
       </c>
     </row>
   </sheetData>
@@ -5434,1229 +5628,231 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C3:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D152"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
+    <row r="3" spans="3:7">
+      <c r="C3" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4">
+        <v>484.04601651199999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
+        <v>386</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>681.94</v>
+      </c>
+      <c r="E6">
+        <v>15.2</v>
+      </c>
+      <c r="F6">
+        <v>10365.488000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.27924205456987061</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>787608</v>
+      </c>
+      <c r="E7">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>8978731.1999999993</v>
+      </c>
+      <c r="G7">
+        <v>241.88338722871507</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8">
+        <v>787608</v>
+      </c>
+      <c r="E8">
+        <v>7.6</v>
+      </c>
+      <c r="F8">
+        <v>5985820.7999999998</v>
+      </c>
+      <c r="G8">
+        <v>161.25559148581007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9">
+        <v>787608</v>
+      </c>
+      <c r="E9">
+        <v>3.8</v>
+      </c>
+      <c r="F9">
+        <v>2992910.4</v>
+      </c>
+      <c r="G9">
+        <v>80.627795742905036</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10">
+        <v>17967827.887999997</v>
+      </c>
+      <c r="G10">
+        <v>484.04601651200005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14">
+        <v>562.51441371999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="s">
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="D81" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>229</v>
-      </c>
-      <c r="D84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>231</v>
-      </c>
-      <c r="D86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>238</v>
-      </c>
-      <c r="D93" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>239</v>
-      </c>
-      <c r="D94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>240</v>
-      </c>
-      <c r="D95" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>241</v>
-      </c>
-      <c r="D96" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>242</v>
-      </c>
-      <c r="D97" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>244</v>
-      </c>
-      <c r="D99" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>246</v>
-      </c>
-      <c r="D101" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>248</v>
-      </c>
-      <c r="D103" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>249</v>
-      </c>
-      <c r="D104" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>250</v>
-      </c>
-      <c r="D105" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>251</v>
-      </c>
-      <c r="D106" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>252</v>
-      </c>
-      <c r="D107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>254</v>
-      </c>
-      <c r="D109" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>255</v>
-      </c>
-      <c r="D110" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>256</v>
-      </c>
-      <c r="D111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>257</v>
-      </c>
-      <c r="D112" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>258</v>
-      </c>
-      <c r="D113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>259</v>
-      </c>
-      <c r="D114" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>260</v>
-      </c>
-      <c r="D115" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>262</v>
-      </c>
-      <c r="D117" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>264</v>
-      </c>
-      <c r="D119" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>265</v>
-      </c>
-      <c r="D120" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>266</v>
-      </c>
-      <c r="D121" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>267</v>
-      </c>
-      <c r="D122" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>268</v>
-      </c>
-      <c r="D123" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>269</v>
-      </c>
-      <c r="D124" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>270</v>
-      </c>
-      <c r="D125" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>271</v>
-      </c>
-      <c r="D126" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>273</v>
-      </c>
-      <c r="D128" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>274</v>
-      </c>
-      <c r="D129" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>275</v>
-      </c>
-      <c r="D130" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>276</v>
-      </c>
-      <c r="D131" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>277</v>
-      </c>
-      <c r="D132" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>278</v>
-      </c>
-      <c r="D133" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>279</v>
-      </c>
-      <c r="D134" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>280</v>
-      </c>
-      <c r="D135" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>281</v>
-      </c>
-      <c r="D136" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>282</v>
-      </c>
-      <c r="D137" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>283</v>
-      </c>
-      <c r="D138" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>286</v>
-      </c>
-      <c r="D141" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>287</v>
-      </c>
-      <c r="D142" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>288</v>
-      </c>
-      <c r="D143" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>289</v>
-      </c>
-      <c r="D144" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>290</v>
-      </c>
-      <c r="D145" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>291</v>
-      </c>
-      <c r="D146" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>292</v>
-      </c>
-      <c r="D147" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>293</v>
-      </c>
-      <c r="D148" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>294</v>
-      </c>
-      <c r="D149" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>295</v>
-      </c>
-      <c r="D150" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>296</v>
-      </c>
-      <c r="D151" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>297</v>
-      </c>
-      <c r="D152" t="s">
-        <v>377</v>
+        <v>386</v>
+      </c>
+      <c r="E15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>681.94</v>
+      </c>
+      <c r="E16">
+        <v>15.2</v>
+      </c>
+      <c r="F16">
+        <v>10365.488000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.32450980950990826</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>787608</v>
+      </c>
+      <c r="E17">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="F17">
+        <v>8978731.1999999993</v>
+      </c>
+      <c r="G17">
+        <v>281.09495195524511</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>787608</v>
+      </c>
+      <c r="E18">
+        <v>7.6</v>
+      </c>
+      <c r="F18">
+        <v>5985820.7999999998</v>
+      </c>
+      <c r="G18">
+        <v>187.39663463683004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19">
+        <v>787608</v>
+      </c>
+      <c r="E19">
+        <v>3.8</v>
+      </c>
+      <c r="F19">
+        <v>2992910.4</v>
+      </c>
+      <c r="G19">
+        <v>93.698317318415022</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20">
+        <v>17967827.887999997</v>
+      </c>
+      <c r="G20">
+        <v>562.51441371999999</v>
       </c>
     </row>
   </sheetData>
@@ -6666,34 +5862,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D152"/>
+  <sheetViews>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="D107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="D112" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>267</v>
+      </c>
+      <c r="D122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>272</v>
+      </c>
+      <c r="D127" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D128" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>277</v>
+      </c>
+      <c r="D132" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>283</v>
+      </c>
+      <c r="D138" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="D139" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>285</v>
+      </c>
+      <c r="D140" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>286</v>
+      </c>
+      <c r="D141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>287</v>
+      </c>
+      <c r="D142" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>288</v>
+      </c>
+      <c r="D143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="D145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="D148" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="D152" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="10.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="11"/>
-    <col min="16" max="16" width="19.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -6735,8 +7163,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:17" ht="18">
+      <c r="A2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6781,8 +7209,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:17" ht="19" thickBot="1">
+      <c r="A3" s="105"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -6827,8 +7255,8 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+    <row r="4" spans="1:17" ht="18">
+      <c r="A4" s="105"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -6859,8 +7287,8 @@
         <v>0.53890000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+    <row r="5" spans="1:17" ht="19" thickBot="1">
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -6893,8 +7321,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+    <row r="6" spans="1:17" ht="17" thickBot="1">
+      <c r="A6" s="105"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -6920,8 +7348,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+    <row r="7" spans="1:17" ht="18">
+      <c r="A7" s="105"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6953,13 +7381,13 @@
         <v>3.5333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="1:17" ht="19" thickBot="1">
+      <c r="A8" s="106"/>
+      <c r="B8" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="7">
         <f>SUM(E2:E7)</f>
         <v>681.94</v>
@@ -6981,8 +7409,8 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="104" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -7000,8 +7428,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+    <row r="10" spans="1:17">
+      <c r="A10" s="105"/>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -7017,8 +7445,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+    <row r="11" spans="1:17">
+      <c r="A11" s="105"/>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -7034,8 +7462,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+    <row r="12" spans="1:17">
+      <c r="A12" s="105"/>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -7051,8 +7479,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:17">
+      <c r="A13" s="105"/>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
@@ -7068,20 +7496,20 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="59" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" s="106"/>
+      <c r="B14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="7">
         <f>SUM(E9:E13)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:17">
+      <c r="A15" s="104" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7099,8 +7527,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:17">
+      <c r="A16" s="105"/>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -7116,8 +7544,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="105"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -7133,8 +7561,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="105"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -7150,8 +7578,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="105"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -7167,20 +7595,20 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="59" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="106"/>
+      <c r="B20" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="7">
         <f>SUM(E15:E19)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="104" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -7198,8 +7626,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="105"/>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -7215,8 +7643,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="105"/>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -7232,8 +7660,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="105"/>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
@@ -7249,8 +7677,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="105"/>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -7266,25 +7694,25 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="59" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="106"/>
+      <c r="B26" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="8">
         <f>SUM(E21:E25)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:5" ht="17" thickBot="1">
+      <c r="A27" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="9">
         <f>E8+E14+E20+E26</f>
         <v>2363505.94</v>
@@ -7309,25 +7737,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="1"/>
       <c r="B1" s="51" t="s">
         <v>10</v>
@@ -7345,8 +7773,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="107" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -7365,8 +7793,8 @@
       </c>
       <c r="F2" s="53"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="108"/>
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
@@ -7383,8 +7811,8 @@
       </c>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="108"/>
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
@@ -7402,8 +7830,8 @@
       </c>
       <c r="F4" s="53"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="108"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -7420,8 +7848,8 @@
       </c>
       <c r="F5" s="53"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="108"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
@@ -7437,21 +7865,21 @@
       </c>
       <c r="F6" s="53"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="109"/>
+      <c r="B7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="50">
         <f>SUM(E2:E6)</f>
         <v>654.88000000000011</v>
       </c>
       <c r="F7" s="53"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="107" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -7470,8 +7898,8 @@
       </c>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="108"/>
       <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
@@ -7488,8 +7916,8 @@
       </c>
       <c r="F9" s="53"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="108"/>
       <c r="B10" s="23" t="s">
         <v>2</v>
       </c>
@@ -7508,8 +7936,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="108"/>
       <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
@@ -7526,8 +7954,8 @@
       </c>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="108"/>
       <c r="B12" s="23" t="s">
         <v>4</v>
       </c>
@@ -7544,21 +7972,21 @@
       </c>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="109"/>
+      <c r="B13" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="50">
         <f>SUM(E8:E12)</f>
         <v>717.36</v>
       </c>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="107" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -7577,8 +8005,8 @@
       </c>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="108"/>
       <c r="B15" s="23" t="s">
         <v>1</v>
       </c>
@@ -7595,8 +8023,8 @@
       </c>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="108"/>
       <c r="B16" s="23" t="s">
         <v>2</v>
       </c>
@@ -7615,8 +8043,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="108"/>
       <c r="B17" s="23" t="s">
         <v>5</v>
       </c>
@@ -7633,8 +8061,8 @@
       </c>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+    <row r="18" spans="1:6" ht="16">
+      <c r="A18" s="108"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -7651,21 +8079,21 @@
       </c>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="109"/>
+      <c r="B19" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="50">
         <f>SUM(E14:E18)</f>
         <v>717.36</v>
       </c>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7684,8 +8112,8 @@
       </c>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="108"/>
       <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
@@ -7702,8 +8130,8 @@
       </c>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="108"/>
       <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
@@ -7722,8 +8150,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="108"/>
       <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
@@ -7740,8 +8168,8 @@
       </c>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="108"/>
       <c r="B24" s="23" t="s">
         <v>4</v>
       </c>
@@ -7758,26 +8186,26 @@
       </c>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="109"/>
+      <c r="B25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="50">
         <f>SUM(E20:E24)</f>
         <v>717.36</v>
       </c>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:6" ht="17" thickBot="1">
+      <c r="A26" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="54">
         <f>E7+E13+E19+E25</f>
         <v>2806.9600000000005</v>
@@ -7802,25 +8230,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="80">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -7870,7 +8298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
@@ -7924,7 +8352,7 @@
         <v>15023311.926605504</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16">
       <c r="A3" s="29" t="s">
         <v>45</v>
       </c>
@@ -7978,7 +8406,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="16">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -8032,7 +8460,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="16">
       <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
@@ -8086,12 +8514,12 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="E6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="E7">
         <f>E2/9.81</f>
         <v>69.514780835881751</v>
@@ -8109,7 +8537,7 @@
         <v>13816.062691131499</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="E8">
         <f t="shared" ref="E8:H8" si="4">E3/9.81</f>
         <v>80286.238532110088</v>
@@ -8127,7 +8555,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="E9">
         <f t="shared" ref="E9:H9" si="5">E4/9.81</f>
         <v>80286.238532110088</v>
@@ -8145,7 +8573,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="E10">
         <f t="shared" ref="E10:H10" si="6">E5/9.81</f>
         <v>80286.238532110088</v>
@@ -8163,7 +8591,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="64">
       <c r="A14" s="25" t="s">
         <v>48</v>
       </c>
@@ -8189,7 +8617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
@@ -8219,7 +8647,7 @@
         <v>66112200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="16">
       <c r="A16" s="29" t="s">
         <v>45</v>
       </c>
@@ -8249,7 +8677,7 @@
         <v>469746805.57499999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
@@ -8279,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="29" t="s">
         <v>8</v>
       </c>
@@ -8316,29 +8744,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="31" t="s">
         <v>56</v>
       </c>
@@ -8361,7 +8789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
@@ -8393,7 +8821,7 @@
         <v>284.91134164650379</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
@@ -8425,7 +8853,7 @@
         <v>226.96221717674811</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="32" t="s">
         <v>37</v>
       </c>
@@ -8457,7 +8885,7 @@
         <v>151.30814478449875</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -8489,18 +8917,18 @@
         <v>75.654072392249375</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
@@ -8523,7 +8951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
@@ -8547,7 +8975,7 @@
         <v>0.19548103266627276</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="32" t="s">
         <v>39</v>
       </c>
@@ -8571,7 +8999,7 @@
         <v>0.3512024873951074</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="32" t="s">
         <v>37</v>
       </c>
@@ -8595,7 +9023,7 @@
         <v>0.40041477568194417</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
@@ -8619,15 +9047,15 @@
         <v>0.44609306906906904</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="33" t="s">
         <v>40</v>
       </c>
@@ -8641,7 +9069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="32" t="s">
         <v>59</v>
       </c>
@@ -8658,7 +9086,7 @@
         <v>363242.75717265345</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -8675,7 +9103,7 @@
         <v>363242.75717265345</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="32" t="s">
         <v>37</v>
       </c>
@@ -8692,7 +9120,7 @@
         <v>412775.8604234698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
         <v>9</v>
       </c>
@@ -8709,23 +9137,23 @@
         <v>412775.8604234698</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="33" t="s">
         <v>40</v>
       </c>
@@ -8745,7 +9173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
         <v>59</v>
       </c>
@@ -8768,7 +9196,7 @@
         <v>0.78361135785227187</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
@@ -8791,7 +9219,7 @@
         <v>0.78361135785227187</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="32" t="s">
         <v>37</v>
       </c>
@@ -8814,7 +9242,7 @@
         <v>0.89046745210485434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
@@ -8837,7 +9265,7 @@
         <v>0.89046745210485434</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -8845,15 +9273,15 @@
       <c r="E30" s="38"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="33" t="s">
         <v>40</v>
       </c>
@@ -8867,7 +9295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="32" t="s">
         <v>59</v>
       </c>
@@ -8884,7 +9312,7 @@
         <v>224527.44078947377</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="32" t="s">
         <v>39</v>
       </c>
@@ -8901,7 +9329,7 @@
         <v>224527.44078947377</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="32" t="s">
         <v>37</v>
       </c>
@@ -8918,7 +9346,7 @@
         <v>255144.81907894745</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="32" t="s">
         <v>9</v>
       </c>
@@ -8935,26 +9363,26 @@
         <v>255144.81907894745</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="33" t="s">
         <v>40</v>
       </c>
@@ -8983,7 +9411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="33" t="s">
         <v>59</v>
       </c>
@@ -9018,7 +9446,7 @@
         <v>0.80822702899478049</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="33" t="s">
         <v>39</v>
       </c>
@@ -9053,7 +9481,7 @@
         <v>0.80822702899478049</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="33" t="s">
         <v>37</v>
       </c>
@@ -9088,7 +9516,7 @@
         <v>0.81818479723334248</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="33" t="s">
         <v>9</v>
       </c>
@@ -9123,14 +9551,14 @@
         <v>0.81818479723334248</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="33" t="s">
         <v>40</v>
       </c>
@@ -9141,7 +9569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="32" t="s">
         <v>59</v>
       </c>
@@ -9154,7 +9582,7 @@
         <v>-20683.740000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="32" t="s">
         <v>39</v>
       </c>
@@ -9167,7 +9595,7 @@
         <v>186153.66000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="32" t="s">
         <v>37</v>
       </c>
@@ -9180,7 +9608,7 @@
         <v>390170.55000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="32" t="s">
         <v>9</v>
       </c>
@@ -9193,25 +9621,25 @@
         <v>625213.05000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="33" t="s">
         <v>40</v>
       </c>
@@ -9232,7 +9660,7 @@
       </c>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="33" t="s">
         <v>59</v>
       </c>
@@ -9258,7 +9686,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="33" t="s">
         <v>39</v>
       </c>
@@ -9284,7 +9712,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="33" t="s">
         <v>37</v>
       </c>
@@ -9310,7 +9738,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="33" t="s">
         <v>9</v>
       </c>
@@ -9336,7 +9764,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -9347,7 +9775,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -9372,95 +9800,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>